--- a/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C164939-030D-684C-AF1C-B3B9FAAF6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123526DD-879F-814C-8BEE-96B1A261D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="53060" windowHeight="24240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="74940" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Documentation sur le projet lui-même et la base de données, ainsi qu'un guide de recherche</t>
+  </si>
+  <si>
+    <t>DocumentRepresentation, crm:E31_Document, schema:DigitalDocument</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,6 +1177,9 @@
       </c>
       <c r="J4" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2298,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB4D76-6E56-BC47-A642-3A8C7BCF9D1B}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>

--- a/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123526DD-879F-814C-8BEE-96B1A261D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109D4A3-2B10-804C-AA64-9D420EEA2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="74940" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48680" yWindow="500" windowWidth="26260" windowHeight="24240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -546,9 +546,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>hasDescription</t>
-  </si>
-  <si>
     <t>0-n</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>DocumentRepresentation, crm:E31_Document, schema:DigitalDocument</t>
+  </si>
+  <si>
+    <t>hasFileDescription</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -1112,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
@@ -1135,16 +1135,16 @@
         <v>25</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>26</v>
@@ -1152,34 +1152,34 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="G4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2199,7 +2199,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2226,10 +2226,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>32</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB4D76-6E56-BC47-A642-3A8C7BCF9D1B}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>32</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>32</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
@@ -3637,7 +3637,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>32</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>32</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123526DD-879F-814C-8BEE-96B1A261D944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AA1C51-F7F8-BB42-A0F6-E1F043F88896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="74940" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="74940" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -498,15 +498,6 @@
     <t>Progetto - Archivi</t>
   </si>
   <si>
-    <t>Zipped folder containing the scripts and other files from the project</t>
-  </si>
-  <si>
-    <t>Gepackter Ordner mit den Skripten und anderen Dateien des Projekts</t>
-  </si>
-  <si>
-    <t>Dossier zippé contenant les scripts et autres fichiers du projet</t>
-  </si>
-  <si>
     <t>ArchiveRepresentation, schema:ArchiveComponent, crm:E78_Curated_Holding</t>
   </si>
   <si>
@@ -588,21 +579,6 @@
     <t>Progetto - Documentazione</t>
   </si>
   <si>
-    <t>XML and CSV files for the project</t>
-  </si>
-  <si>
-    <t>File XML e CSV per il progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichiers XML et CSV du projet </t>
-  </si>
-  <si>
-    <t>XML- und CSV-Dateien des Projekts</t>
-  </si>
-  <si>
-    <t>Cartella zippata contenente gli script e gli altri file del progetto</t>
-  </si>
-  <si>
     <t>Documentation about the project itself and the database as well as search guide</t>
   </si>
   <si>
@@ -616,6 +592,30 @@
   </si>
   <si>
     <t>DocumentRepresentation, crm:E31_Document, schema:DigitalDocument</t>
+  </si>
+  <si>
+    <t>Zipped folder containing the import scripts and other files from the project that cannot be archived otherwise</t>
+  </si>
+  <si>
+    <t>Cartella compressa contenente gli script di importazione e altri file del progetto che non possono essere archiviati in altro modo</t>
+  </si>
+  <si>
+    <t>Zip-Ordner mit den Importskripten und anderen Dateien aus dem Projekt, die nicht anderweitig archiviert werden können</t>
+  </si>
+  <si>
+    <t>Dossier compressé contenant les scripts d'importation et d'autres fichiers du projet qui ne peuvent être archivés autrement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML and CSV files used for the creation of the project. Each CSV file corresponds to one class and contains all of that class's instances, along with all of its property values. The XML file is the one used for the xml upload of the project. </t>
+  </si>
+  <si>
+    <t>Fichiers XML et CSV utilisés pour la création du projet. Chaque fichier CSV correspond à une classe et contient toutes les instances de cette classe, ainsi que toutes les valeurs de ses propriétés. Le fichier XML est celui utilisé pour la mise en ligne du projet.</t>
+  </si>
+  <si>
+    <t>XML- und CSV-Dateien, die für die Erstellung des Projekts verwendet werden. Jede CSV-Datei entspricht einer Klasse und enthält alle Instanzen dieser Klasse sowie alle ihre Eigenschaftswerte. Die XML-Datei wurde für den XML-Upload des Projekts verwendet.</t>
+  </si>
+  <si>
+    <t>File XML e CSV utilizzati per la creazione del progetto. Ogni file CSV corrisponde a una classe e contiene tutte le istanze di quella classe, insieme a tutti i valori delle sue proprietà. Il file XML è quello utilizzato per il caricamento xml del progetto.</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,12 +1022,12 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="77" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="62.1640625" customWidth="1"/>
@@ -1103,83 +1103,83 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="H4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L4" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2190,21 +2190,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2315,13 +2315,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
@@ -3647,18 +3647,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AA1C51-F7F8-BB42-A0F6-E1F043F88896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109D4A3-2B10-804C-AA64-9D420EEA2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="74940" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48680" yWindow="500" windowWidth="26260" windowHeight="24240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -498,6 +498,15 @@
     <t>Progetto - Archivi</t>
   </si>
   <si>
+    <t>Zipped folder containing the scripts and other files from the project</t>
+  </si>
+  <si>
+    <t>Gepackter Ordner mit den Skripten und anderen Dateien des Projekts</t>
+  </si>
+  <si>
+    <t>Dossier zippé contenant les scripts et autres fichiers du projet</t>
+  </si>
+  <si>
     <t>ArchiveRepresentation, schema:ArchiveComponent, crm:E78_Curated_Holding</t>
   </si>
   <si>
@@ -537,9 +546,6 @@
     <t>0-1</t>
   </si>
   <si>
-    <t>hasDescription</t>
-  </si>
-  <si>
     <t>0-n</t>
   </si>
   <si>
@@ -579,6 +585,21 @@
     <t>Progetto - Documentazione</t>
   </si>
   <si>
+    <t>XML and CSV files for the project</t>
+  </si>
+  <si>
+    <t>File XML e CSV per il progetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichiers XML et CSV du projet </t>
+  </si>
+  <si>
+    <t>XML- und CSV-Dateien des Projekts</t>
+  </si>
+  <si>
+    <t>Cartella zippata contenente gli script e gli altri file del progetto</t>
+  </si>
+  <si>
     <t>Documentation about the project itself and the database as well as search guide</t>
   </si>
   <si>
@@ -594,28 +615,7 @@
     <t>DocumentRepresentation, crm:E31_Document, schema:DigitalDocument</t>
   </si>
   <si>
-    <t>Zipped folder containing the import scripts and other files from the project that cannot be archived otherwise</t>
-  </si>
-  <si>
-    <t>Cartella compressa contenente gli script di importazione e altri file del progetto che non possono essere archiviati in altro modo</t>
-  </si>
-  <si>
-    <t>Zip-Ordner mit den Importskripten und anderen Dateien aus dem Projekt, die nicht anderweitig archiviert werden können</t>
-  </si>
-  <si>
-    <t>Dossier compressé contenant les scripts d'importation et d'autres fichiers du projet qui ne peuvent être archivés autrement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML and CSV files used for the creation of the project. Each CSV file corresponds to one class and contains all of that class's instances, along with all of its property values. The XML file is the one used for the xml upload of the project. </t>
-  </si>
-  <si>
-    <t>Fichiers XML et CSV utilisés pour la création du projet. Chaque fichier CSV correspond à une classe et contient toutes les instances de cette classe, ainsi que toutes les valeurs de ses propriétés. Le fichier XML est celui utilisé pour la mise en ligne du projet.</t>
-  </si>
-  <si>
-    <t>XML- und CSV-Dateien, die für die Erstellung des Projekts verwendet werden. Jede CSV-Datei entspricht einer Klasse und enthält alle Instanzen dieser Klasse sowie alle ihre Eigenschaftswerte. Die XML-Datei wurde für den XML-Upload des Projekts verwendet.</t>
-  </si>
-  <si>
-    <t>File XML e CSV utilizzati per la creazione del progetto. Ogni file CSV corrisponde a una classe e contiene tutte le istanze di quella classe, insieme a tutti i valori delle sue proprietà. Il file XML è quello utilizzato per il caricamento xml del progetto.</t>
+    <t>hasFileDescription</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,12 +1022,12 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="77" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="62.1640625" customWidth="1"/>
@@ -1103,83 +1103,83 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2190,21 +2190,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB4D76-6E56-BC47-A642-3A8C7BCF9D1B}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2315,13 +2315,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
@@ -3637,7 +3637,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3647,18 +3647,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109D4A3-2B10-804C-AA64-9D420EEA2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE3A567-E162-8C40-8774-2530576C235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48680" yWindow="500" windowWidth="26260" windowHeight="24240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48680" yWindow="500" windowWidth="26260" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BB1D1EA0-0C57-5542-8A33-5D291BF36576}">
       <text>
         <r>
           <rPr>
@@ -498,15 +498,6 @@
     <t>Progetto - Archivi</t>
   </si>
   <si>
-    <t>Zipped folder containing the scripts and other files from the project</t>
-  </si>
-  <si>
-    <t>Gepackter Ordner mit den Skripten und anderen Dateien des Projekts</t>
-  </si>
-  <si>
-    <t>Dossier zippé contenant les scripts et autres fichiers du projet</t>
-  </si>
-  <si>
     <t>ArchiveRepresentation, schema:ArchiveComponent, crm:E78_Curated_Holding</t>
   </si>
   <si>
@@ -585,21 +576,6 @@
     <t>Progetto - Documentazione</t>
   </si>
   <si>
-    <t>XML and CSV files for the project</t>
-  </si>
-  <si>
-    <t>File XML e CSV per il progetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichiers XML et CSV du projet </t>
-  </si>
-  <si>
-    <t>XML- und CSV-Dateien des Projekts</t>
-  </si>
-  <si>
-    <t>Cartella zippata contenente gli script e gli altri file del progetto</t>
-  </si>
-  <si>
     <t>Documentation about the project itself and the database as well as search guide</t>
   </si>
   <si>
@@ -616,6 +592,30 @@
   </si>
   <si>
     <t>hasFileDescription</t>
+  </si>
+  <si>
+    <t>Zipped folder containing the import scripts and other files from the project that cannot be archived otherwise</t>
+  </si>
+  <si>
+    <t>Zip-Ordner mit den Importskripten und anderen Dateien aus dem Projekt, die nicht anderweitig archiviert werden können</t>
+  </si>
+  <si>
+    <t>Dossier compressé contenant les scripts d'importation et d'autres fichiers du projet qui ne peuvent être archivés autrement.</t>
+  </si>
+  <si>
+    <t>Cartella compressa contenente gli script di importazione e altri file del progetto che non possono essere archiviati in altro modo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML and CSV files used for the creation of the project. Each CSV file corresponds to one class and contains all of that class's instances, along with all of its property values. The XML file is the one used for the xml upload of the project. </t>
+  </si>
+  <si>
+    <t>XML- und CSV-Dateien, die für die Erstellung des Projekts verwendet werden. Jede CSV-Datei entspricht einer Klasse und enthält alle Instanzen dieser Klasse sowie alle ihre Eigenschaftswerte. Die XML-Datei wurde für den XML-Upload des Projekts verwendet.</t>
+  </si>
+  <si>
+    <t>Fichiers XML et CSV utilisés pour la création du projet. Chaque fichier CSV correspond à une classe et contient toutes les instances de cette classe, ainsi que toutes les valeurs de ses propriétés. Le fichier XML est celui utilisé pour la mise en ligne du projet.</t>
+  </si>
+  <si>
+    <t>File XML e CSV utilizzati per la creazione del progetto. Ogni file CSV corrisponde a una classe e contiene tutte le istanze di quella classe, insieme a tutti i valori delle sue proprietà. Il file XML è quello utilizzato per il caricamento xml del progetto.</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="G10" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="1" customWidth="1"/>
@@ -1103,83 +1103,83 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="H4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="L4" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2166,8 +2166,8 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="resource-name" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" location="resource-labels" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G1" r:id="rId3" location="resource-comments" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L1" r:id="rId4" location="resource-super" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L1" r:id="rId3" location="resource-super" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G1" r:id="rId4" location="resource-comments" xr:uid="{887355FD-63CD-9B49-A8BD-DBCBBC62DA37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -2190,21 +2190,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2304,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB4D76-6E56-BC47-A642-3A8C7BCF9D1B}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2315,13 +2315,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
@@ -3647,18 +3647,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
